--- a/Tools/Compliance_Automation/AzureGR.xlsx
+++ b/Tools/Compliance_Automation/AzureGR.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSC\GR\JULY24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clients\SSC\July28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F749E-AEED-4682-9D31-A47FB25B396F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0EF25-FED3-415F-9242-67870D02DC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="210" windowWidth="18000" windowHeight="22080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="271">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -85,13 +85,7 @@
     <t>Enable Network Watcher for your Azure Subscriptions.</t>
   </si>
   <si>
-    <t>Network diagnostic and visualization tools available with Network Watcher help you understand, diagnose, and gain insights to your network in Azure.</t>
-  </si>
-  <si>
     <t>Compliant                                 If the output command shows -  "provisioningState": "Succeeded",  It means the status will be compliant. Otherwise the status will be non compliant.</t>
-  </si>
-  <si>
-    <t>AZ-L1-067</t>
   </si>
   <si>
     <t xml:space="preserve">SI-2
@@ -108,10 +102,6 @@
     <t>Guest users not required</t>
   </si>
   <si>
-    <t xml:space="preserve">**Azure Console**
-</t>
-  </si>
-  <si>
     <t>Manual Process</t>
   </si>
   <si>
@@ -146,14 +136,6 @@
   </si>
   <si>
     <t>Ensure that "Number of methods required to reset" is set to "2"</t>
-  </si>
-  <si>
-    <t>**Azure Console**
-1. Go to `Azure Active Directory`
-2. Go to `Users and group`
-3. Go to `Password reset`
-4. Go to `Authentication methods`
-5. Set the `Number of methods required to reset` to `2`</t>
   </si>
   <si>
     <t>AZ-L1-001</t>
@@ -348,12 +330,6 @@
     <t>The potential security problem with using RDP over the Internet is that attackers can use various brute force techniques to gain access to Azure Virtual Machines. Once the attackers gain access, they can use your virtual machine as a launch point for compromising other machines on your Azure Virtual Network or even attack networked devices outside of Azure.</t>
   </si>
   <si>
-    <t>Disable direct RDP access to your Azure Virtual Machines from the Internet. After direct RDP access from the Internet is disabled, you have other options you can use to access these virtual machines for remote management:
- - [Point-to-site VPN](https://docs.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-point-to-site-resource-manager-portal)
- - [Site-to-site VPN](https://docs.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-site-to-site-resource-manager-portal)
- - [ExpressRoute](https://docs.microsoft.com/en-us/azure/expressroute/)</t>
-  </si>
-  <si>
     <t>1. For each VM, open the `Networking` blade
 2. Verify that the `INBOUND PORT RULES` **does not** have a rule for RDP such as 
  - port = `3389`, 
@@ -371,12 +347,6 @@
   </si>
   <si>
     <t>The potential security problem with using SSH over the Internet is that attackers can use various brute force techniques to gain access to Azure Virtual Machines. Once the attackers gain access, they can use your virtual machine as a launch point for compromising other machines on your Azure Virtual Network or even attack networked devices outside of Azure.</t>
-  </si>
-  <si>
-    <t>Disable direct SSH access to your Azure Virtual Machines from the Internet. After direct SSH access from the Internet is disabled, you have other options you can use to access these virtual machines for remote management:
- - [Point-to-site VPN](https://docs.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-point-to-site-resource-manager-portal)
- - [Site-to-site VPN](https://docs.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-site-to-site-resource-manager-portal)
- - [ExpressRoute](https://docs.microsoft.com/en-us/azure/expressroute/)</t>
   </si>
   <si>
     <t>1. Open the `Networking` blade for the specific Virtual machine in Azure portal
@@ -513,31 +483,6 @@
     <t>AZ-L1-014</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ensure that 'Network security groups' is set to 'On'                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(New-Wording)   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">              Internet-facing virtual machines should be protected with network security groups.</t>
-    </r>
-  </si>
-  <si>
     <t>Enable Network security groups recommendations for virtual machines.</t>
   </si>
   <si>
@@ -987,15 +932,6 @@
 3. Ensure that `Storage service encryption` is set to `Enabled`</t>
   </si>
   <si>
-    <t>1. Go to `Storage Accounts`
-2. For each storage account, go to `Encryption` under `Settings`
-3. Set `Storage service encryption` to `Enabled`
-Use the below command to enable the `Encryption` for `Storage Accounts` `BLOB SERVICE`
-```
-az storage account update --name  --resource-group  --set encryption.services.blob.enabled=true
-```</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to `Storage Accounts`
 2. For each storage account, go to `Containers` under `BLOB SERVICE`
 3. For each container, click `Access policy`
@@ -1096,12 +1032,248 @@
 iii. Click 'Edit' at the top of the page.
 iv. Follow the on-screen instructions and select the Network Security Group to assign to this NIC.</t>
   </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>EAZ-L1-012</t>
+  </si>
+  <si>
+    <t>EAZ-L1-009</t>
+  </si>
+  <si>
+    <t>EAZ-L1-013</t>
+  </si>
+  <si>
+    <t>EAZ-L1-014</t>
+  </si>
+  <si>
+    <t>EAZ-L1-021.1</t>
+  </si>
+  <si>
+    <t>EAZ-L1-021.2</t>
+  </si>
+  <si>
+    <t>EAZ-L1-022</t>
+  </si>
+  <si>
+    <t>EAZ-L1-027</t>
+  </si>
+  <si>
+    <t>EAZ-L1-028</t>
+  </si>
+  <si>
+    <t>EAZ-L1-032</t>
+  </si>
+  <si>
+    <t>EAZ-L1-033</t>
+  </si>
+  <si>
+    <t>EAZ-L1-045</t>
+  </si>
+  <si>
+    <t>EAZ-L1-047</t>
+  </si>
+  <si>
+    <t>EAZ-L1-048</t>
+  </si>
+  <si>
+    <t>EAZ-L1-051</t>
+  </si>
+  <si>
+    <t>EAZ-L1-068</t>
+  </si>
+  <si>
+    <t>EAZ-L1-069</t>
+  </si>
+  <si>
+    <t>EAZ-L1-066</t>
+  </si>
+  <si>
+    <t>EAZ-L1-001</t>
+  </si>
+  <si>
+    <t>EAZ-L1-063</t>
+  </si>
+  <si>
+    <t>EAZ-L1-064</t>
+  </si>
+  <si>
+    <t>AZ-L1-004</t>
+  </si>
+  <si>
+    <t>IA-5(1)</t>
+  </si>
+  <si>
+    <t>IA-5(1) #1,2,3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AUTHENTICATOR MANAGEMENT | PASSWORD-BASED AUTHENTICATION
+REMOTE ACCESS</t>
+  </si>
+  <si>
+    <t>Ensure that 'Number of days before users are asked to re-confirm their authentication information' is not set to '0'</t>
+  </si>
+  <si>
+    <t>If authentication re-confirmation is disabled, registered users will never be prompted to re-confirm their existing authentication information. If the authentication information for a user, such as a phone number or email changes, then the password reset information for that user goes to the previously registered authentication information.</t>
+  </si>
+  <si>
+    <t>1. Go to `Azure Active Directory`
+2. Go to `Users and group`
+3. Go to `Password reset`
+4. Go to `Registration`
+5. Ensure that `Number of days before users are asked to re-confirm their authentication information` is not set to `0`</t>
+  </si>
+  <si>
+    <t>AZ-L1-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC-2(4) 
+IA-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC-2 #1,2,3,4  
+No specific ref to AC-2(4)
+IA-5 #1,2,3,4
+</t>
+  </si>
+  <si>
+    <t>AC-2 
+No specific ref to AC-2(4)
+IA-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACCOUNT MANAGEMENT | AUTOMATED AUDIT ACTION
+AUTHENTICATOR MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Ensure that 'Notify users on password resets?' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>Ensure that the users are notified on their primary and secondary emails on password resets.</t>
+  </si>
+  <si>
+    <t>User notification on password reset is a passive way of confirming password reset activity. It helps the user to recognize unauthorized password reset activities.</t>
+  </si>
+  <si>
+    <t>1. Go to `Azure Active Directory`
+2. Go to `Users and group`
+3. Go to `Password reset`
+4. Go to `Notification`
+5. Set `Notify users on password resets?` to `Yes`</t>
+  </si>
+  <si>
+    <t>2. Go to `Users and group`</t>
+  </si>
+  <si>
+    <t>3. Go to `Password reset`</t>
+  </si>
+  <si>
+    <t>1. Go to `Azure Active Directory`
+2. Go to `Users and group`
+3. Go to `Password reset`
+4. Go to `Notification`
+5. Ensure that `Notify users on password resets?` is set to `Yes`</t>
+  </si>
+  <si>
+    <t>AZ-L1-006</t>
+  </si>
+  <si>
+    <t>AC-6(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC-6 #1,2,3,4
+No specific ref to AC-6(1)
+</t>
+  </si>
+  <si>
+    <t>AC-6
+No specific ref to AC-6(1)</t>
+  </si>
+  <si>
+    <t>LEAST PRIVILEGE | AUTHORIZE ACCESS TO SECURITY FUNCTIONS</t>
+  </si>
+  <si>
+    <t>Ensure that 'Restrict access to Azure AD administration portal' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>Restrict access to Azure AD administration portal to administrators only.</t>
+  </si>
+  <si>
+    <t>Azure AD administrative portal has sensitive data. You should restrict all non-administrators from accessing any Azure AD data in the administration portal to avoid exposure.</t>
+  </si>
+  <si>
+    <t>1. Go to `Azure Active Directory`
+2. Go to `Users and group`
+3. Go to `User settings`
+4. Set `Restrict access to Azure AD administration portal` to `Yes`</t>
+  </si>
+  <si>
+    <t>1. Go to `Azure Active Directory`
+2. Go to `Users and group`
+3. Go to `User settings`
+4. Ensure that `Restrict access to Azure AD administration portal` is set to `Yes`</t>
+  </si>
+  <si>
+    <t>Like multi-factor authentication, setting up dual identification before allowing a password reset ensures that the user identity is confirmed via two separate forms of identification. With dual identification set, an attacker would require compromising both the identity forms before she could maliciously reset a user's password.</t>
+  </si>
+  <si>
+    <t>Ensure that two alternate forms of identification are needed before allowing password reset.</t>
+  </si>
+  <si>
+    <t>4. Go to `Authentication methods`</t>
+  </si>
+  <si>
+    <t>5. Set the `Number of methods required to reset` to `2`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Go to `Azure Active Directory`
+2. Go to `Users and group`
+3. Go to `Password reset`
+4. Go to `Authentication methods`
+5. Set the `Number of methods required to reset` to `2`</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure that 'Network security groups' is set to 'On'                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(New-Wording)   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">              Internet-facing virtual machines should be protected with network security groups. Disclaimer: Deployment of the PBMM policies as part of the AZBCALZ will prevent the creation of public IPs in all subnets with the exception of the VDC_Security_Core_External-rg</t>
+    </r>
+  </si>
+  <si>
+    <t>Network diagnostic and visualization tools available with Network Watcher help you understand, diagnose, and gain insights to your network in Azure. Disclaimer: Deployment of the PBMM policies as part of the AZBCALZ will only allow the creation of resources in Canada-east and Canada-central regions. Therefore we only need to enable Network Watcher on those 2 regions</t>
+  </si>
+  <si>
+    <t>AZ-L1-002</t>
+  </si>
+  <si>
+    <t>EAZ-L1-002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1135,8 +1307,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1344,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -1297,7 +1494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1330,9 +1527,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1352,12 +1546,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1379,13 +1567,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1736,11 +1954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,10 +1976,11 @@
     <col min="11" max="12" width="29.7109375" customWidth="1"/>
     <col min="13" max="14" width="18.140625" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="1023" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1772,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1802,319 +2021,340 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="17">
+    <row r="3" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="16">
         <v>2.5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D3" s="8">
         <v>11</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="B4" s="25">
         <v>2.6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>33</v>
+        <v>181</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>63</v>
+    <row r="5" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="9">
         <v>3.2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>60</v>
+      <c r="C5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="28">
+    <row r="6" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="25">
         <v>2.7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D6" s="8">
         <v>9</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>34</v>
+        <v>179</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="28">
+    <row r="7" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="25">
         <v>2.14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>201</v>
+        <v>116</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>34</v>
+        <v>178</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="28">
+    <row r="8" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="25">
         <v>2.14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D8" s="8">
         <v>10</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>200</v>
+        <v>116</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>34</v>
+        <v>177</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="28">
+    <row r="9" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="25">
         <v>2.15</v>
       </c>
       <c r="C9" s="8"/>
@@ -2123,220 +2363,235 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="P9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="33">
+        <v>3.1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="20">
+        <v>6</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="B13" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="8">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="M13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" ht="168" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="285" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="23">
+    <row r="14" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="8">
         <v>6</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="204" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="23">
-        <v>6</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="285" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="17">
-        <v>3.7</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="8">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="8">
-        <v>11</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>144</v>
@@ -2348,32 +2603,33 @@
         <v>146</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:17" ht="360" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D15" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="6" t="s">
         <v>149</v>
       </c>
@@ -2381,33 +2637,36 @@
         <v>150</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="390" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="360" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D16" s="8">
         <v>11</v>
@@ -2415,436 +2674,548 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="K16" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="22">
+        <v>5.2</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="B20" s="33">
+        <v>7.3</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="34">
+        <v>6</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="390" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>34</v>
+      <c r="F24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="390" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="8">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="255" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s">
+    <row r="25" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="5">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="F25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="17">
-        <v>6.1</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>85</v>
+      <c r="G25" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>89</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="17">
-        <v>6.1</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>83</v>
+        <v>233</v>
+      </c>
+      <c r="B26" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>92</v>
+        <v>236</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>237</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>34</v>
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Tools/Compliance_Automation/AzureGR.xlsx
+++ b/Tools/Compliance_Automation/AzureGR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clients\SSC\July28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0EF25-FED3-415F-9242-67870D02DC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0013A7C-F779-4951-9816-E452073983B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="33660" windowHeight="12630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="270">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Azure Security Center provisions the Microsoft Monitoring Agent on all existing supported Azure virtual machines and any new ones that are created. The Microsoft Monitoring agent scans for various security-related configurations and events such as system updates, OS vulnerabilities, and endpoint protection and provides alerts.</t>
-  </si>
-  <si>
-    <t>compliant</t>
   </si>
   <si>
     <t>Ensure that Activity Log Retention is set 365 days or greater</t>
@@ -489,9 +486,6 @@
     <t>When this setting is enabled, it recommends that network security groups be configured to control inbound and outbound traffic to VMs that have public endpoints. Network security groups that are configured for a subnet is inherited by all virtual machine network interfaces unless otherwise specified. In addition to checking that a network security group has been configured, this policy assesses inbound security rules to identify rules that allow incoming traffic.</t>
   </si>
   <si>
-    <t>AZ-L1-021 .1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CONFIGURATION SETTINGS | AUTOMATED CENTRAL MANAGEMENT / APPLICATION / VERIFICATION</t>
   </si>
   <si>
@@ -513,9 +507,6 @@
 3. Click on the security policy subscription
 4. Click on `Security policy`
 5. Ensure that `SQL auditing &amp; Threat detection` is set to `On`</t>
-  </si>
-  <si>
-    <t>AZ-L1-021 .2</t>
   </si>
   <si>
     <t>AZ-L1-022</t>
@@ -1048,12 +1039,6 @@
     <t>EAZ-L1-014</t>
   </si>
   <si>
-    <t>EAZ-L1-021.1</t>
-  </si>
-  <si>
-    <t>EAZ-L1-021.2</t>
-  </si>
-  <si>
     <t>EAZ-L1-022</t>
   </si>
   <si>
@@ -1267,6 +1252,18 @@
   </si>
   <si>
     <t>EAZ-L1-002</t>
+  </si>
+  <si>
+    <t>AZ-L1-021a</t>
+  </si>
+  <si>
+    <t>AZ-L1-021b</t>
+  </si>
+  <si>
+    <t>EAZ-L1-021b</t>
+  </si>
+  <si>
+    <t>EAZ-L1-021a</t>
   </si>
 </sst>
 </file>
@@ -1957,8 +1954,8 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
@@ -2063,10 +2060,10 @@
         <v>53</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>46</v>
@@ -2075,97 +2072,97 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="16">
         <v>2.5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="8">
         <v>11</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="25">
         <v>2.6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,13 +2194,13 @@
         <v>55</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>75</v>
@@ -2212,43 +2209,43 @@
         <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="25">
         <v>2.7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="8">
         <v>9</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="J6" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>75</v>
@@ -2257,43 +2254,43 @@
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="B7" s="25">
         <v>2.14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>75</v>
@@ -2302,43 +2299,43 @@
         <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="B8" s="25">
         <v>2.14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="8">
         <v>10</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="I8" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>75</v>
@@ -2347,12 +2344,12 @@
         <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="25">
         <v>2.15</v>
@@ -2363,30 +2360,34 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+        <v>173</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="225" x14ac:dyDescent="0.25">
@@ -2421,10 +2422,10 @@
         <v>63</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M10" s="33" t="s">
         <v>75</v>
@@ -2433,12 +2434,12 @@
         <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" s="14">
         <v>3.6</v>
@@ -2451,25 +2452,25 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="H11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>75</v>
@@ -2478,7 +2479,7 @@
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="285" x14ac:dyDescent="0.25">
@@ -2507,13 +2508,13 @@
         <v>69</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>75</v>
@@ -2522,43 +2523,43 @@
         <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" s="8">
         <v>11</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="K13" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>75</v>
@@ -2567,43 +2568,43 @@
         <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" s="8">
         <v>6</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="L14" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>75</v>
@@ -2612,18 +2613,18 @@
         <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="8">
         <v>11</v>
@@ -2631,22 +2632,22 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="L15" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>75</v>
@@ -2655,18 +2656,18 @@
         <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="390" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="8">
         <v>11</v>
@@ -2674,19 +2675,19 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="7"/>
@@ -2697,28 +2698,28 @@
     </row>
     <row r="17" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="22">
         <v>5.2</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="L17" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s">
         <v>75</v>
@@ -2727,7 +2728,7 @@
         <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2756,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>91</v>
@@ -2765,10 +2766,10 @@
         <v>92</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N18" s="33" t="s">
         <v>30</v>
@@ -2777,12 +2778,12 @@
         <v>19</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="4">
         <v>7.2</v>
@@ -2795,25 +2796,25 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="I19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>170</v>
-      </c>
       <c r="L19" s="33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" s="33" t="s">
         <v>75</v>
@@ -2823,12 +2824,12 @@
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="28" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" s="33">
         <v>7.3</v>
@@ -2841,25 +2842,25 @@
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G20" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>164</v>
-      </c>
       <c r="L20" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M20" s="33" t="s">
         <v>75</v>
@@ -2869,7 +2870,7 @@
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="28" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,7 +2908,7 @@
         <v>43</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M21" s="33" t="s">
         <v>75</v>
@@ -2917,7 +2918,7 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="225" x14ac:dyDescent="0.25">
@@ -2940,16 +2941,16 @@
         <v>35</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O22" t="s">
         <v>24</v>
@@ -2958,7 +2959,7 @@
     </row>
     <row r="23" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>13</v>
@@ -2985,7 +2986,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>24</v>
@@ -3003,7 +3004,7 @@
         <v>29</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -3035,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>84</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>75</v>
@@ -3050,7 +3051,7 @@
         <v>31</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="405" x14ac:dyDescent="0.25">
@@ -3082,13 +3083,13 @@
         <v>88</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>89</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>75</v>
@@ -3097,80 +3098,80 @@
         <v>31</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B26" s="16">
         <v>1.6</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B27" s="16">
         <v>2.6</v>
       </c>
       <c r="C27" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="I27" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="J27" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="K27" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="O27" t="s">
         <v>24</v>
@@ -3178,37 +3179,37 @@
     </row>
     <row r="28" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B28" s="16">
         <v>1.1499999999999999</v>
       </c>
       <c r="C28" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="I28" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="J28" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="K28" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="O28" t="s">
         <v>24</v>
